--- a/biology/Botanique/Anthocleista/Anthocleista.xlsx
+++ b/biology/Botanique/Anthocleista/Anthocleista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocleista est un genre d'arbres de la famille des Gentianaceae, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juillet 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juillet 2019) :
 Anthocleista amplexicaulis Baker
 Anthocleista djalonensis A. Chevalier
 Anthocleista grandiflora Gilg
@@ -529,17 +543,17 @@
 Anthocleista scandens Hook. fil.
 Anthocleista schweinfurthii Gilg
 Anthocleista vogelii Planch.
-Selon GRIN            (19 juillet 2019)[3] :
+Selon GRIN            (19 juillet 2019) :
 Anthocleista grandiflora Gilg
 Anthocleista schweinfurthii Gilg
-Selon NCBI  (19 juillet 2019)[4] :
+Selon NCBI  (19 juillet 2019) :
 Anthocleista amplexicaulis
 Anthocleista grandiflora
 Anthocleista nobilis
 Anthocleista scandens
 Anthocleista schweinfurthii
 Anthocleista vogelii
-Selon The Plant List            (19 juillet 2019)[5] :
+Selon The Plant List            (19 juillet 2019) :
 Anthocleista amplexicaulis Baker
 Anthocleista djalonensis A.Chev.
 Anthocleista grandiflora Gilg
@@ -555,7 +569,7 @@
 Anthocleista scandens Hook.f.
 Anthocleista schweinfurthii Gilg
 Anthocleista vogelii Planch.
-Selon Tropicos                                           (19 juillet 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 juillet 2019) (Attention liste brute contenant possiblement des synonymes) :
 Anthocleista amplexicaulis Baker
 Anthocleista auriculata De Wild.
 Anthocleista baertsiana De Wild. &amp; T. Durand
